--- a/Modelos em Python/resultados_validacao_combined.xlsx
+++ b/Modelos em Python/resultados_validacao_combined.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19.29487089258454</v>
+        <v>20.4378593530834</v>
       </c>
       <c r="D6" t="n">
-        <v>0.422039270401001</v>
+        <v>0.5184710025787354</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4148370111403122</v>
+        <v>0.4387629079547988</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -607,13 +607,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22.5950090937642</v>
+        <v>21.72972093930105</v>
       </c>
       <c r="D7" t="n">
-        <v>0.649402379989624</v>
+        <v>0.6011979579925537</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4726226916347984</v>
+        <v>0.4599909147934512</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>24.36869610646901</v>
+        <v>22.052590715623</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7390553951263428</v>
+        <v>0.619647741317749</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4965698439099493</v>
+        <v>0.4648040768576874</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -659,13 +659,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>24.32609549250818</v>
+        <v>22.052590715623</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7369925975799561</v>
+        <v>0.619647741317749</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4960126990541005</v>
+        <v>0.4648040768576874</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -685,13 +685,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19.29487089258454</v>
+        <v>20.4378593530834</v>
       </c>
       <c r="D10" t="n">
-        <v>0.422039270401001</v>
+        <v>0.5184710025787354</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4148370111403122</v>
+        <v>0.4387629079547988</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22.5950090937642</v>
+        <v>21.72972093930105</v>
       </c>
       <c r="D11" t="n">
-        <v>0.649402379989624</v>
+        <v>0.6011979579925537</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4726226916347984</v>
+        <v>0.4599909147934512</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>24.36869610646901</v>
+        <v>22.052590715623</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7390553951263428</v>
+        <v>0.619647741317749</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4965698439099493</v>
+        <v>0.4648040768576874</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>24.32609549250818</v>
+        <v>22.052590715623</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7369925975799561</v>
+        <v>0.619647741317749</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4960126990541005</v>
+        <v>0.4648040768576874</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -789,13 +789,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22.97352747052331</v>
+        <v>24.3687249098227</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8173534398753449</v>
+        <v>0.88554905669037</v>
       </c>
       <c r="E14" t="n">
-        <v>1.198748843517266</v>
+        <v>1.284269117375691</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -815,13 +815,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>49.21894634425978</v>
+        <v>52.75480302971359</v>
       </c>
       <c r="D15" t="n">
-        <v>2.117297582222013</v>
+        <v>2.331882156161352</v>
       </c>
       <c r="E15" t="n">
-        <v>3.193001951723991</v>
+        <v>3.486788431938083</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -841,13 +841,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>49.91313282593821</v>
+        <v>53.78776475579189</v>
       </c>
       <c r="D16" t="n">
-        <v>2.161001695208388</v>
+        <v>2.399305055834447</v>
       </c>
       <c r="E16" t="n">
-        <v>3.267213972306771</v>
+        <v>3.594359401752395</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -867,13 +867,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>49.14677210917831</v>
+        <v>53.49015831099076</v>
       </c>
       <c r="D17" t="n">
-        <v>2.115377007918702</v>
+        <v>2.380662524938292</v>
       </c>
       <c r="E17" t="n">
-        <v>3.205273290950763</v>
+        <v>3.569248294464953</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>25.5601276791697</v>
+        <v>24.43583151199413</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9401985434576098</v>
+        <v>0.8880187484423967</v>
       </c>
       <c r="E18" t="n">
-        <v>1.356233812872704</v>
+        <v>1.284183739882384</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>61.64880748211634</v>
+        <v>59.34972818430971</v>
       </c>
       <c r="D19" t="n">
-        <v>2.918302495674945</v>
+        <v>2.759553758164012</v>
       </c>
       <c r="E19" t="n">
-        <v>4.291693221276912</v>
+        <v>4.072045897630004</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -945,13 +945,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>65.56275121592027</v>
+        <v>61.55274179065704</v>
       </c>
       <c r="D20" t="n">
-        <v>3.206985001752583</v>
+        <v>2.917314824793614</v>
       </c>
       <c r="E20" t="n">
-        <v>4.715354252914675</v>
+        <v>4.314403456790038</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -971,13 +971,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>70.43151259282374</v>
+        <v>61.63794211674993</v>
       </c>
       <c r="D21" t="n">
-        <v>3.584911833283758</v>
+        <v>2.923574681968238</v>
       </c>
       <c r="E21" t="n">
-        <v>5.249199959984766</v>
+        <v>4.324151465355181</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>29.98925823919237</v>
+        <v>29.65945630388209</v>
       </c>
       <c r="D22" t="n">
-        <v>1.107457798060912</v>
+        <v>1.092108920793654</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5686251059027378</v>
+        <v>0.5643203723589695</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1023,13 +1023,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>84.4094859571705</v>
+        <v>83.68753324958075</v>
       </c>
       <c r="D23" t="n">
-        <v>4.84928127653104</v>
+        <v>4.776581210697421</v>
       </c>
       <c r="E23" t="n">
-        <v>1.733103672371322</v>
+        <v>1.709824905626678</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1049,13 +1049,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>99.8184857090373</v>
+        <v>98.80187238628524</v>
       </c>
       <c r="D24" t="n">
-        <v>6.650974223626374</v>
+        <v>6.51510248260016</v>
       </c>
       <c r="E24" t="n">
-        <v>2.31180820694208</v>
+        <v>2.268022092216483</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1075,13 +1075,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>106.6150980006024</v>
+        <v>105.2474459512193</v>
       </c>
       <c r="D25" t="n">
-        <v>7.635196734874335</v>
+        <v>7.425706353422772</v>
       </c>
       <c r="E25" t="n">
-        <v>2.629020489526295</v>
+        <v>2.561387763605258</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1309,13 +1309,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>20.70356701213879</v>
+        <v>20.70384577313722</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7121208241911026</v>
+        <v>0.7121308206505189</v>
       </c>
       <c r="E34" t="n">
-        <v>0.231180506135086</v>
+        <v>0.231175799918299</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1621,13 +1621,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>27.30210055318548</v>
+        <v>27.31653751934055</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9840847356805736</v>
+        <v>0.9847385990156956</v>
       </c>
       <c r="E46" t="n">
-        <v>0.354844602325362</v>
+        <v>0.3550099177791785</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1933,13 +1933,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>27.33136241830373</v>
+        <v>27.32203450138865</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9854132406633692</v>
+        <v>0.984991637860964</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3551947167055764</v>
+        <v>0.3550930059430906</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2245,13 +2245,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>27.31006881368785</v>
+        <v>27.29882232917956</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9844508625962969</v>
+        <v>0.9839393486147793</v>
       </c>
       <c r="E70" t="n">
-        <v>0.3549570606487576</v>
+        <v>0.3548180684987735</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
